--- a/TOKEN主控板/主控板（不含RFID）/BJWG-SCB-01-焊接清单.xlsx
+++ b/TOKEN主控板/主控板（不含RFID）/BJWG-SCB-01-焊接清单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="207">
   <si>
     <t>100nF-0805-50V-20%</t>
   </si>
@@ -217,15 +217,9 @@
     <t>BUTTON2</t>
   </si>
   <si>
-    <t>100uH 12*12*7</t>
-  </si>
-  <si>
     <t>L1</t>
   </si>
   <si>
-    <t>Inductor SMT7</t>
-  </si>
-  <si>
     <t>P1, P4, P5, P6, P7, P8</t>
   </si>
   <si>
@@ -364,9 +358,6 @@
     <t>SOT-223-3L</t>
   </si>
   <si>
-    <t>W25Q64</t>
-  </si>
-  <si>
     <t>U7</t>
   </si>
   <si>
@@ -382,9 +373,6 @@
     <t>SO-8</t>
   </si>
   <si>
-    <t>ULN2003A</t>
-  </si>
-  <si>
     <t>U9</t>
   </si>
   <si>
@@ -407,9 +395,6 @@
   </si>
   <si>
     <t>SO-14</t>
-  </si>
-  <si>
-    <t>L298P</t>
   </si>
   <si>
     <t>U16</t>
@@ -735,10 +720,6 @@
     <t>ST</t>
   </si>
   <si>
-    <t>DIN-TEC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MAXIM</t>
   </si>
   <si>
@@ -868,21 +849,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>TI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/ST</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>光藕</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1001,6 +967,38 @@
   <si>
     <t>安装时需要红胶固定（红胶型号：卡夫特K-200R）</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLF12565T-101M1R6-PF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L298P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TI</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼎日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸿星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W25Q64BVSSIG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ULN2003ADR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1149,7 +1147,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1181,35 +1179,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1220,7 +1189,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1278,70 +1247,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1790,8 +1750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1805,45 +1765,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
+      <c r="A1" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -1852,14 +1812,14 @@
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="15" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="8" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6">
@@ -1873,10 +1833,10 @@
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>169</v>
+        <v>145</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>163</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>0</v>
@@ -1898,10 +1858,10 @@
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>150</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>155</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>3</v>
@@ -1923,10 +1883,10 @@
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>154</v>
+        <v>146</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>149</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>5</v>
@@ -1948,10 +1908,10 @@
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>150</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>155</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>8</v>
@@ -1973,10 +1933,10 @@
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="22" t="s">
         <v>150</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>155</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>11</v>
@@ -1998,10 +1958,10 @@
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>156</v>
+        <v>147</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>151</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>13</v>
@@ -2023,10 +1983,10 @@
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="17" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>16</v>
@@ -2047,11 +2007,11 @@
         <v>9</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>197</v>
+      <c r="C11" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>190</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>19</v>
@@ -2073,10 +2033,10 @@
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>163</v>
+        <v>157</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>158</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>22</v>
@@ -2097,11 +2057,11 @@
         <v>11</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>196</v>
+      <c r="C13" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>189</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>24</v>
@@ -2123,7 +2083,7 @@
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="15" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="1" t="s">
@@ -2146,7 +2106,7 @@
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="15" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="1" t="s">
@@ -2169,7 +2129,7 @@
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="15" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="1" t="s">
@@ -2191,11 +2151,11 @@
         <v>15</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>172</v>
+      <c r="C17" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>166</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>36</v>
@@ -2216,8 +2176,8 @@
         <v>16</v>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="33"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="35"/>
       <c r="E18" s="1" t="s">
         <v>38</v>
       </c>
@@ -2237,8 +2197,8 @@
         <v>17</v>
       </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="33"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="35"/>
       <c r="E19" s="1" t="s">
         <v>41</v>
       </c>
@@ -2258,8 +2218,8 @@
         <v>18</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="33"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="35"/>
       <c r="E20" s="1" t="s">
         <v>43</v>
       </c>
@@ -2279,8 +2239,8 @@
         <v>19</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="33"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="35"/>
       <c r="E21" s="1" t="s">
         <v>46</v>
       </c>
@@ -2300,8 +2260,8 @@
         <v>20</v>
       </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="33"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="35"/>
       <c r="E22" s="1" t="s">
         <v>49</v>
       </c>
@@ -2321,10 +2281,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="7"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="33"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="35"/>
       <c r="E23" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>53</v>
@@ -2342,8 +2302,8 @@
         <v>22</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="33"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="35"/>
       <c r="E24" s="1" t="s">
         <v>54</v>
       </c>
@@ -2363,8 +2323,8 @@
         <v>23</v>
       </c>
       <c r="B25" s="7"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="33"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="35"/>
       <c r="E25" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,8 +2344,8 @@
         <v>24</v>
       </c>
       <c r="B26" s="7"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="33"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="35"/>
       <c r="E26" s="1" t="s">
         <v>60</v>
       </c>
@@ -2405,8 +2365,8 @@
         <v>25</v>
       </c>
       <c r="B27" s="7"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="33"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="35"/>
       <c r="E27" s="1" t="s">
         <v>63</v>
       </c>
@@ -2426,12 +2386,12 @@
         <v>26</v>
       </c>
       <c r="B28" s="7"/>
-      <c r="C28" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="D28" s="34"/>
+      <c r="C28" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="D28" s="29"/>
       <c r="E28" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>66</v>
@@ -2449,18 +2409,20 @@
         <v>27</v>
       </c>
       <c r="B29" s="7"/>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="D29" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="D29" s="34"/>
       <c r="E29" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F29" s="31">
+        <v>12565</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="H29" s="2">
         <v>1</v>
@@ -2472,20 +2434,20 @@
         <v>28</v>
       </c>
       <c r="B30" s="7"/>
-      <c r="C30" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>177</v>
+      <c r="C30" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>170</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H30" s="2">
         <v>6</v>
@@ -2497,20 +2459,20 @@
         <v>29</v>
       </c>
       <c r="B31" s="7"/>
-      <c r="C31" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="D31" s="35" t="s">
-        <v>164</v>
+      <c r="C31" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>203</v>
       </c>
       <c r="E31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="G31" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H31" s="2">
         <v>3</v>
@@ -2522,18 +2484,18 @@
         <v>30</v>
       </c>
       <c r="B32" s="7"/>
-      <c r="C32" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="D32" s="34"/>
+      <c r="C32" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D32" s="29"/>
       <c r="E32" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H32" s="2">
         <v>2</v>
@@ -2545,20 +2507,20 @@
         <v>31</v>
       </c>
       <c r="B33" s="7"/>
-      <c r="C33" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="D33" s="35" t="s">
-        <v>159</v>
+      <c r="C33" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>154</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H33" s="2">
         <v>4</v>
@@ -2570,20 +2532,20 @@
         <v>32</v>
       </c>
       <c r="B34" s="7"/>
-      <c r="C34" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="D34" s="36" t="s">
-        <v>170</v>
+      <c r="C34" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>164</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H34" s="2">
         <v>29</v>
@@ -2595,16 +2557,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="7"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="37"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="34"/>
       <c r="E35" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H35" s="2">
         <v>8</v>
@@ -2616,16 +2578,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="7"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="37"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="34"/>
       <c r="E36" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H36" s="2">
         <v>20</v>
@@ -2637,16 +2599,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="7"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="37"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="34"/>
       <c r="E37" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H37" s="2">
         <v>1</v>
@@ -2658,16 +2620,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="7"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="37"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="34"/>
       <c r="E38" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H38" s="2">
         <v>35</v>
@@ -2679,16 +2641,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="7"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="37"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="34"/>
       <c r="E39" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H39" s="2">
         <v>6</v>
@@ -2700,16 +2662,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="7"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="37"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="34"/>
       <c r="E40" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H40" s="2">
         <v>2</v>
@@ -2721,16 +2683,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="7"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="37"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="34"/>
       <c r="E41" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H41" s="2">
         <v>4</v>
@@ -2742,16 +2704,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="7"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="37"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="34"/>
       <c r="E42" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H42" s="2">
         <v>2</v>
@@ -2763,16 +2725,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="7"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="37"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="34"/>
       <c r="E43" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H43" s="2">
         <v>1</v>
@@ -2784,16 +2746,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="7"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="37"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="34"/>
       <c r="E44" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="G44" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H44" s="2">
         <v>2</v>
@@ -2805,16 +2767,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="7"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="37"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="34"/>
       <c r="E45" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F45" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="H45" s="2">
         <v>2</v>
@@ -2826,18 +2788,20 @@
         <v>44</v>
       </c>
       <c r="B46" s="7"/>
-      <c r="C46" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="D46" s="34"/>
+      <c r="C46" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>204</v>
+      </c>
       <c r="E46" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="G46" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H46" s="2">
         <v>1</v>
@@ -2849,20 +2813,20 @@
         <v>45</v>
       </c>
       <c r="B47" s="7"/>
-      <c r="C47" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="D47" s="30" t="s">
-        <v>185</v>
+      <c r="C47" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>178</v>
       </c>
       <c r="E47" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="H47" s="2">
         <v>1</v>
@@ -2874,20 +2838,20 @@
         <v>46</v>
       </c>
       <c r="B48" s="7"/>
-      <c r="C48" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="D48" s="34" t="s">
-        <v>171</v>
+      <c r="C48" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="D48" s="29" t="s">
+        <v>165</v>
       </c>
       <c r="E48" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="G48" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H48" s="2">
         <v>1</v>
@@ -2899,20 +2863,20 @@
         <v>47</v>
       </c>
       <c r="B49" s="7"/>
-      <c r="C49" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="D49" s="30" t="s">
-        <v>185</v>
+      <c r="C49" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>178</v>
       </c>
       <c r="E49" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="G49" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H49" s="2">
         <v>1</v>
@@ -2924,20 +2888,20 @@
         <v>48</v>
       </c>
       <c r="B50" s="7"/>
-      <c r="C50" s="39" t="s">
-        <v>191</v>
-      </c>
-      <c r="D50" s="34" t="s">
-        <v>190</v>
+      <c r="C50" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="D50" s="29" t="s">
+        <v>183</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>116</v>
+        <v>205</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H50" s="2">
         <v>1</v>
@@ -2949,18 +2913,18 @@
         <v>49</v>
       </c>
       <c r="B51" s="7"/>
-      <c r="C51" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="D51" s="34"/>
+      <c r="C51" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="D51" s="29"/>
       <c r="E51" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H51" s="2">
         <v>1</v>
@@ -2972,20 +2936,20 @@
         <v>50</v>
       </c>
       <c r="B52" s="7"/>
-      <c r="C52" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="D52" s="30" t="s">
-        <v>175</v>
+      <c r="C52" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>202</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>122</v>
+        <v>206</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H52" s="2">
         <v>1</v>
@@ -2997,20 +2961,20 @@
         <v>51</v>
       </c>
       <c r="B53" s="7"/>
-      <c r="C53" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="D53" s="31" t="s">
-        <v>165</v>
+      <c r="C53" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D53" s="25" t="s">
+        <v>159</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H53" s="2">
         <v>2</v>
@@ -3022,20 +2986,20 @@
         <v>52</v>
       </c>
       <c r="B54" s="7"/>
-      <c r="C54" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="D54" s="30" t="s">
-        <v>180</v>
+      <c r="C54" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>173</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H54" s="2">
         <v>2</v>
@@ -3047,20 +3011,20 @@
         <v>53</v>
       </c>
       <c r="B55" s="7"/>
-      <c r="C55" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="D55" s="34" t="s">
-        <v>171</v>
+      <c r="C55" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="D55" s="29" t="s">
+        <v>165</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>131</v>
+        <v>201</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H55" s="2">
         <v>1</v>
@@ -3072,20 +3036,20 @@
         <v>54</v>
       </c>
       <c r="B56" s="7"/>
-      <c r="C56" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="D56" s="38" t="s">
-        <v>166</v>
+      <c r="C56" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="D56" s="27" t="s">
+        <v>160</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H56" s="2">
         <v>1</v>
@@ -3098,20 +3062,20 @@
       </c>
       <c r="B57" s="7"/>
       <c r="C57" s="15" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D57" s="15"/>
       <c r="E57" s="15" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="F57" s="15"/>
       <c r="G57" s="15">
         <v>4</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="I57" s="40"/>
+        <v>195</v>
+      </c>
+      <c r="I57" s="28"/>
     </row>
     <row r="58" spans="1:9" ht="60" x14ac:dyDescent="0.15">
       <c r="A58" s="6">
@@ -3119,21 +3083,21 @@
       </c>
       <c r="B58" s="7"/>
       <c r="C58" s="15" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D58" s="15"/>
       <c r="E58" s="15" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F58" s="15"/>
       <c r="G58" s="15">
         <v>8</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="I58" s="15" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
